--- a/bases/jogos.xlsx
+++ b/bases/jogos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="72">
   <si>
     <t>data</t>
   </si>
@@ -575,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>45896</v>
+        <v>45927</v>
       </c>
       <c r="B48" s="1">
         <v>0.77083333333333337</v>
@@ -2127,6 +2127,70 @@
       </c>
       <c r="J48" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>45932</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C49">
+        <v>48</v>
+      </c>
+      <c r="D49" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" t="s">
+        <v>57</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>45935</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="C50">
+        <v>49</v>
+      </c>
+      <c r="D50" t="s">
+        <v>48</v>
+      </c>
+      <c r="E50" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
